--- a/doc/misc/database_sizing.xlsx
+++ b/doc/misc/database_sizing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="One Table per Node" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,9 +256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0" numFmtId="165"/>
-    <numFmt formatCode="0.0" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -350,84 +350,84 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -436,211 +436,207 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="3" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="42">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -712,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H16" activeCellId="0" pane="topLeft" sqref="H16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,7 +729,7 @@
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1" s="3">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -757,7 +753,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -793,7 +789,7 @@
       </c>
       <c r="P2" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -840,7 +836,7 @@
       </c>
       <c r="P3" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -873,7 +869,7 @@
       </c>
       <c r="P4" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -905,7 +901,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>3</v>
       </c>
@@ -940,7 +936,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -972,7 +968,7 @@
       </c>
       <c r="P7" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1011,7 @@
       </c>
       <c r="P8" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>5</v>
       </c>
@@ -1056,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1073,7 +1069,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1090,7 +1086,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.45" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1115,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1148,7 +1144,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>22</v>
@@ -1183,7 +1179,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1214,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1232,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="n">
         <f aca="false">H15*60*60*24/H14</f>
-        <v>532800</v>
+        <v>1065600</v>
       </c>
       <c r="K16" s="13"/>
       <c r="L16" s="11" t="s">
@@ -1250,7 +1246,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>1</v>
       </c>
@@ -1271,7 +1267,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="n">
         <f aca="false">ROUNDUP(J16*(H12/H13),0)</f>
-        <v>53280000</v>
+        <v>60891429</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="11" t="s">
@@ -1285,7 +1281,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1299,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="n">
         <f aca="false">J16*H12</f>
-        <v>213120000</v>
+        <v>426240000</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="11" t="s">
@@ -1317,7 +1313,7 @@
       </c>
       <c r="P18" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1334,7 +1330,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1351,7 +1347,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="13"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21" s="17">
+    <row r="21" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
         <v>28</v>
@@ -1375,7 +1371,7 @@
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>6</v>
       </c>
@@ -1410,7 +1406,7 @@
       </c>
       <c r="P22" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>7</v>
       </c>
@@ -1445,7 +1441,7 @@
       </c>
       <c r="P23" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>8</v>
       </c>
@@ -1466,7 +1462,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19" t="n">
         <f aca="false">ROUNDUP(J17/(J22-J23),0)</f>
-        <v>409847</v>
+        <v>468396</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="18" t="s">
@@ -1480,7 +1476,7 @@
       </c>
       <c r="P24" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>9</v>
       </c>
@@ -1503,7 +1499,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19" t="n">
         <f aca="false">J24*8192</f>
-        <v>3357466624</v>
+        <v>3837100032</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>18</v>
@@ -1521,7 +1517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -1537,7 +1533,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19" t="n">
         <f aca="false">J25/1024</f>
-        <v>3278776</v>
+        <v>3747168</v>
       </c>
       <c r="K26" s="20" t="s">
         <v>33</v>
@@ -1553,7 +1549,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -1569,7 +1565,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="21" t="n">
         <f aca="false">J26/1024</f>
-        <v>3201.9296875</v>
+        <v>3659.34375</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>34</v>
@@ -1585,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1601,7 +1597,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="24" t="n">
         <f aca="false">J27/1024</f>
-        <v>3.12688446044922</v>
+        <v>3.57357788085937</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>35</v>
@@ -1617,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1636,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
@@ -1672,7 +1668,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1715,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
@@ -1751,7 +1747,7 @@
       </c>
       <c r="P32" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -1783,7 +1779,7 @@
       </c>
       <c r="P33" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>2</v>
       </c>
@@ -1818,7 +1814,7 @@
       </c>
       <c r="P34" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>3</v>
       </c>
@@ -1853,7 +1849,7 @@
       </c>
       <c r="P35" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>4</v>
       </c>
@@ -1894,7 +1890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -1911,7 +1907,7 @@
       <c r="O37" s="27"/>
       <c r="P37" s="28"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38" s="17">
+    <row r="38" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15"/>
       <c r="B38" s="29" t="s">
         <v>48</v>
@@ -1935,7 +1931,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>5</v>
       </c>
@@ -1970,7 +1966,7 @@
       </c>
       <c r="P39" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -1991,7 +1987,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19" t="n">
         <f aca="false">ROUNDUP(((J25/8192)/J39),0)</f>
-        <v>913</v>
+        <v>1044</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="18" t="s">
@@ -2005,7 +2001,7 @@
       </c>
       <c r="P40" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>6.1</v>
       </c>
@@ -2040,7 +2036,7 @@
       </c>
       <c r="P41" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>6.2</v>
       </c>
@@ -2075,7 +2071,7 @@
       </c>
       <c r="P42" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2097,7 @@
       <c r="O43" s="19"/>
       <c r="P43" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -2122,7 +2118,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19" t="n">
         <f aca="false">SUM(J40:J42)</f>
-        <v>917</v>
+        <v>1048</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="18" t="s">
@@ -2136,7 +2132,7 @@
       </c>
       <c r="P44" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>7</v>
       </c>
@@ -2159,7 +2155,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19" t="n">
         <f aca="false">8192*J44</f>
-        <v>7512064</v>
+        <v>8585216</v>
       </c>
       <c r="K45" s="20" t="s">
         <v>18</v>
@@ -2177,7 +2173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -2193,7 +2189,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19" t="n">
         <f aca="false">J45/1024</f>
-        <v>7336</v>
+        <v>8384</v>
       </c>
       <c r="K46" s="20" t="s">
         <v>33</v>
@@ -2209,7 +2205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -2225,7 +2221,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="21" t="n">
         <f aca="false">J46/1024</f>
-        <v>7.1640625</v>
+        <v>8.1875</v>
       </c>
       <c r="K47" s="20" t="s">
         <v>34</v>
@@ -2241,7 +2237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -2257,7 +2253,7 @@
       <c r="I48" s="23"/>
       <c r="J48" s="24" t="n">
         <f aca="false">J47/1024</f>
-        <v>0.00699615478515625</v>
+        <v>0.00799560546875</v>
       </c>
       <c r="K48" s="25" t="s">
         <v>35</v>
@@ -2273,7 +2269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
         <v>59</v>
       </c>
@@ -2296,7 +2292,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>37</v>
       </c>
@@ -2328,7 +2324,7 @@
       </c>
       <c r="P50" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
@@ -2375,7 +2371,7 @@
       </c>
       <c r="P51" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2403,7 @@
       </c>
       <c r="P52" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>43</v>
       </c>
@@ -2439,7 +2435,7 @@
       </c>
       <c r="P53" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>2</v>
       </c>
@@ -2474,7 +2470,7 @@
       </c>
       <c r="P54" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>3</v>
       </c>
@@ -2509,7 +2505,7 @@
       </c>
       <c r="P55" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>4</v>
       </c>
@@ -2550,7 +2546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -2567,7 +2563,7 @@
       <c r="O57" s="12"/>
       <c r="P57" s="13"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="58" s="17">
+    <row r="58" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="16" t="s">
         <v>60</v>
@@ -2591,7 +2587,7 @@
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>5</v>
       </c>
@@ -2626,7 +2622,7 @@
       </c>
       <c r="P59" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>6</v>
       </c>
@@ -2661,7 +2657,7 @@
       </c>
       <c r="P60" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>7</v>
       </c>
@@ -2696,7 +2692,7 @@
       </c>
       <c r="P61" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>8</v>
       </c>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="P62" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
         <v>65</v>
       </c>
@@ -2752,7 +2748,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="19" t="n">
         <f aca="false">ROUNDUP(J17/(J61-J62),0)</f>
-        <v>177010</v>
+        <v>202298</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="18" t="s">
@@ -2766,7 +2762,7 @@
       </c>
       <c r="P63" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>66</v>
       </c>
@@ -2787,7 +2783,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="19" t="n">
         <f aca="false">ROUNDUP(J63/J$59,0)</f>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="18" t="s">
@@ -2801,7 +2797,7 @@
       </c>
       <c r="P64" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>67</v>
       </c>
@@ -2836,7 +2832,7 @@
       </c>
       <c r="P65" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
@@ -2862,7 +2858,7 @@
       <c r="O66" s="19"/>
       <c r="P66" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
         <v>69</v>
       </c>
@@ -2883,7 +2879,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="19" t="n">
         <f aca="false">SUM(J63:J65)</f>
-        <v>177361</v>
+        <v>202699</v>
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="18" t="s">
@@ -2897,7 +2893,7 @@
       </c>
       <c r="P67" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>10</v>
       </c>
@@ -2920,7 +2916,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="19" t="n">
         <f aca="false">8192*J67</f>
-        <v>1452941312</v>
+        <v>1660510208</v>
       </c>
       <c r="K68" s="20" t="s">
         <v>18</v>
@@ -2938,7 +2934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -2954,7 +2950,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="19" t="n">
         <f aca="false">J68/1024</f>
-        <v>1418888</v>
+        <v>1621592</v>
       </c>
       <c r="K69" s="20" t="s">
         <v>33</v>
@@ -2970,7 +2966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -2986,7 +2982,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="21" t="n">
         <f aca="false">J69/1024</f>
-        <v>1385.6328125</v>
+        <v>1583.5859375</v>
       </c>
       <c r="K70" s="20" t="s">
         <v>34</v>
@@ -3002,7 +2998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -3018,7 +3014,7 @@
       <c r="I71" s="23"/>
       <c r="J71" s="24" t="n">
         <f aca="false">J70/1024</f>
-        <v>1.35315704345703</v>
+        <v>1.54647064208984</v>
       </c>
       <c r="K71" s="25" t="s">
         <v>35</v>
@@ -3034,7 +3030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="73" s="31">
+    <row r="73" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="30"/>
       <c r="B73" s="31" t="s">
         <v>70</v>
@@ -3051,7 +3047,7 @@
       </c>
       <c r="J73" s="31" t="n">
         <f aca="false">J68+J45+J25</f>
-        <v>4817920000</v>
+        <v>5506195456</v>
       </c>
       <c r="K73" s="31" t="s">
         <v>18</v>
@@ -3067,9 +3063,10 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="74" s="31">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="30"/>
-      <c r="B74" s="0"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="31" t="n">
         <f aca="false">E73/1024</f>
         <v>40136</v>
@@ -3077,15 +3074,13 @@
       <c r="F74" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G74" s="0"/>
       <c r="J74" s="31" t="n">
         <f aca="false">J73/1024</f>
-        <v>4705000</v>
+        <v>5377144</v>
       </c>
       <c r="K74" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L74" s="0"/>
       <c r="O74" s="31" t="n">
         <f aca="false">O73/1024</f>
         <v>37664</v>
@@ -3094,9 +3089,10 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="75" s="31">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="30"/>
-      <c r="B75" s="0"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="32" t="n">
         <f aca="false">E74/1024</f>
         <v>39.1953125</v>
@@ -3104,15 +3100,13 @@
       <c r="F75" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G75" s="0"/>
       <c r="J75" s="32" t="n">
         <f aca="false">J74/1024</f>
-        <v>4594.7265625</v>
+        <v>5251.1171875</v>
       </c>
       <c r="K75" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="L75" s="0"/>
       <c r="O75" s="32" t="n">
         <f aca="false">O74/1024</f>
         <v>36.78125</v>
@@ -3121,9 +3115,10 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="76" s="31">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="30"/>
-      <c r="B76" s="0"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="33" t="n">
         <f aca="false">E75/1024</f>
         <v>0.0382766723632812</v>
@@ -3131,15 +3126,13 @@
       <c r="F76" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G76" s="0"/>
       <c r="J76" s="33" t="n">
         <f aca="false">J75/1024</f>
-        <v>4.48703765869141</v>
+        <v>5.12804412841797</v>
       </c>
       <c r="K76" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L76" s="0"/>
       <c r="O76" s="33" t="n">
         <f aca="false">O75/1024</f>
         <v>0.035919189453125</v>
@@ -3148,31 +3141,15 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77" s="31">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="30"/>
-      <c r="B77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="O77" s="0"/>
-      <c r="P77" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="78" s="31">
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="30"/>
-      <c r="B78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="O78" s="0"/>
-      <c r="P78" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="79" s="35">
+    </row>
+    <row r="79" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="34"/>
       <c r="B79" s="35" t="s">
         <v>71</v>
@@ -3189,7 +3166,7 @@
       </c>
       <c r="J79" s="35" t="n">
         <f aca="false">J73*H13</f>
-        <v>19271680000</v>
+        <v>38543368192</v>
       </c>
       <c r="K79" s="35" t="s">
         <v>18</v>
@@ -3205,7 +3182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="34"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
@@ -3220,7 +3197,7 @@
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="n">
         <f aca="false">J79/1024</f>
-        <v>18820000</v>
+        <v>37640008</v>
       </c>
       <c r="K80" s="35" t="s">
         <v>33</v>
@@ -3233,7 +3210,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="34"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
@@ -3246,7 +3223,7 @@
       </c>
       <c r="J81" s="36" t="n">
         <f aca="false">J80/1024</f>
-        <v>18378.90625</v>
+        <v>36757.8203125</v>
       </c>
       <c r="K81" s="35" t="s">
         <v>34</v>
@@ -3259,7 +3236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="34"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
@@ -3272,7 +3249,7 @@
       </c>
       <c r="J82" s="37" t="n">
         <f aca="false">J81/1024</f>
-        <v>17.9481506347656</v>
+        <v>35.8963088989258</v>
       </c>
       <c r="K82" s="35" t="s">
         <v>35</v>
@@ -3285,52 +3262,52 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83" s="39">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="38"/>
       <c r="E83" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="B85" s="40" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="B86" s="42" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41" t="s">
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="B87" s="42" t="s">
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41" t="s">
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3355,7 +3332,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/misc/database_sizing.xlsx
+++ b/doc/misc/database_sizing.xlsx
@@ -5,250 +5,255 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="One Table per Node" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="78">
   <si>
-    <t>Minimum Row size with varchar</t>
-  </si>
-  <si>
-    <t>Average Row size with varchar</t>
-  </si>
-  <si>
-    <t>Row size with int</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>2.f</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>2.v</t>
-  </si>
-  <si>
-    <t>varchars</t>
-  </si>
-  <si>
-    <t>2.s</t>
-  </si>
-  <si>
-    <t>varchar Max total</t>
-  </si>
-  <si>
-    <t>null bitmap</t>
-  </si>
-  <si>
-    <t>4.e</t>
-  </si>
-  <si>
-    <t>varchar estimated size</t>
-  </si>
-  <si>
-    <t>4.s</t>
-  </si>
-  <si>
-    <t>varchar size</t>
-  </si>
-  <si>
-    <t>Data Row Size</t>
-  </si>
-  <si>
-    <t>Bytes</t>
-  </si>
-  <si>
-    <t>dci's</t>
-  </si>
-  <si>
-    <t>nodes</t>
-  </si>
-  <si>
-    <t>polling</t>
-  </si>
-  <si>
-    <t>seconds</t>
-  </si>
-  <si>
-    <t>retention</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t># of records per DCI</t>
-  </si>
-  <si>
-    <t># of records per node (# of rows)</t>
-  </si>
-  <si>
-    <t># of records total</t>
-  </si>
-  <si>
-    <t>Size of SQL data</t>
-  </si>
-  <si>
-    <t>Numer of rows per page</t>
-  </si>
-  <si>
-    <t>Clustered Index - 90% fill</t>
-  </si>
-  <si>
-    <t>Pages</t>
-  </si>
-  <si>
-    <t>Table Size (Data_Space_Used)</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>Clustered Index Details</t>
-  </si>
-  <si>
-    <t>1.c</t>
-  </si>
-  <si>
-    <t>Number of Columns in Index</t>
-  </si>
-  <si>
-    <t>1.f</t>
-  </si>
-  <si>
-    <t>Number of Bytes of int cols in index</t>
-  </si>
-  <si>
-    <t>1.v</t>
-  </si>
-  <si>
-    <t>Number of varchar in index</t>
-  </si>
-  <si>
-    <t>1.s</t>
-  </si>
-  <si>
-    <t>Max Size of varchar in index</t>
-  </si>
-  <si>
-    <t>null bitmap in index</t>
-  </si>
-  <si>
-    <t>varchar index size</t>
-  </si>
-  <si>
-    <t>Index Row Size</t>
-  </si>
-  <si>
-    <t>Size of the Clustered Index</t>
-  </si>
-  <si>
-    <t>Index Rows Per page</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>Pages Level 0</t>
-  </si>
-  <si>
-    <t>Pages Level 1</t>
-  </si>
-  <si>
-    <t>Pages Level 2</t>
-  </si>
-  <si>
-    <t>6.n</t>
-  </si>
-  <si>
-    <t>{Note:  Repeat untl Pages Level n = 1}</t>
-  </si>
-  <si>
-    <t>6.t</t>
-  </si>
-  <si>
-    <t>Total Number of Pages</t>
-  </si>
-  <si>
-    <t>Clustered Index Size</t>
-  </si>
-  <si>
-    <t>Nonclustered Index Details</t>
-  </si>
-  <si>
-    <t>Size of the Nonclustered Index</t>
-  </si>
-  <si>
-    <t>Non-Leaf Index rows per page</t>
-  </si>
-  <si>
-    <t>Leaf Index Row Size</t>
-  </si>
-  <si>
-    <t>Leaf Index rows per page</t>
-  </si>
-  <si>
-    <t>NCI 90% Fill Factor</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.n</t>
-  </si>
-  <si>
-    <t>9.t</t>
-  </si>
-  <si>
-    <t>Database Size Per Node</t>
-  </si>
-  <si>
-    <t>Total Database Size (All Nodes)</t>
-  </si>
-  <si>
-    <t>Total Database Size</t>
-  </si>
-  <si>
-    <t>***Resources used for caluclations</t>
-  </si>
-  <si>
-    <t>Estimating the Size of a Table with a Clustered Index (SQL 2000)</t>
-  </si>
-  <si>
-    <t>http://msdn2.microsoft.com/en-us/library/aa933051(SQL.80).aspx</t>
-  </si>
-  <si>
-    <t>Estimating the Size of a Table (SQL 2000)</t>
-  </si>
-  <si>
-    <t>http://msdn2.microsoft.com/en-us/library/aa933068(SQL.80).aspx</t>
+    <t xml:space="preserve">Minimum Row size with varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Row size with varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row size with int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar Max total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null bitmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar estimated size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Row Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dci's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of records per DCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of records per node (# of rows)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of records total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of SQL data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numer of rows per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustered Index - 90% fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Size (Data_Space_Used)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustered Index Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Columns in Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Bytes of int cols in index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of varchar in index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Size of varchar in index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null bitmap in index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar index size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Row Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of the Clustered Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Rows Per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages Level 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages Level 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages Level 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Note:  Repeat untl Pages Level n = 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number of Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clustered Index Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonclustered Index Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size of the Nonclustered Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Leaf Index rows per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Index Row Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaf Index rows per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCI 90% Fill Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Size Per Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Database Size (All Nodes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Database Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">***Resources used for caluclations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating the Size of a Table with a Clustered Index (SQL 2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://msdn2.microsoft.com/en-us/library/aa933051(SQL.80).aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating the Size of a Table (SQL 2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://msdn2.microsoft.com/en-us/library/aa933068(SQL.80).aspx</t>
   </si>
 </sst>
 </file>
@@ -256,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -708,25 +713,25 @@
   </sheetPr>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J82" activeCellId="0" sqref="J82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E82" activeCellId="0" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8520408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.72959183673469"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +851,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="11" t="s">
@@ -879,7 +884,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="n">
-        <v>255</v>
+        <v>510</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="11" t="s">
@@ -946,7 +951,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="s">
@@ -979,7 +984,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="n">
         <f aca="false">IF(E4=0,0,2+(E4*2)+E7)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="11" t="s">
@@ -1022,7 +1027,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="n">
         <f aca="false">E3+E8+E6+4</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>18</v>
@@ -1091,7 +1096,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="12" t="n">
-        <v>1769</v>
+        <v>12000</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1120,7 +1125,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="12" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1184,7 +1189,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>24</v>
@@ -1222,7 +1227,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="n">
         <f aca="false">C15*60*60*24/C14</f>
-        <v>43200</v>
+        <v>129600</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="11" t="s">
@@ -1257,7 +1262,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="n">
         <f aca="false">ROUNDUP(E16*(C12/C13),0)</f>
-        <v>756642</v>
+        <v>3888000</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="11" t="s">
@@ -1289,7 +1294,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="n">
         <f aca="false">E16*C12</f>
-        <v>76420800</v>
+        <v>1555200000</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="11" t="s">
@@ -1382,7 +1387,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19" t="n">
         <f aca="false">ROUNDDOWN((8096/(E9+2)),0)</f>
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="18" t="s">
@@ -1417,7 +1422,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="n">
         <f aca="false">ROUNDDOWN(8096*((100-90)/100)/(E9+2),0)</f>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="18" t="s">
@@ -1452,7 +1457,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="n">
         <f aca="false">ROUNDUP(E17/(E22-E23),0)</f>
-        <v>2489</v>
+        <v>16000</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="18" t="s">
@@ -1487,7 +1492,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="n">
         <f aca="false">E24*8192</f>
-        <v>20389888</v>
+        <v>131072000</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>18</v>
@@ -1523,7 +1528,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="n">
         <f aca="false">E25/1024</f>
-        <v>19912</v>
+        <v>128000</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>33</v>
@@ -1555,7 +1560,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="21" t="n">
         <f aca="false">E26/1024</f>
-        <v>19.4453125</v>
+        <v>125</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>34</v>
@@ -1587,7 +1592,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="24" t="n">
         <f aca="false">E27/1024</f>
-        <v>0.0189895629882813</v>
+        <v>0.1220703125</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>35</v>
@@ -1977,7 +1982,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19" t="n">
         <f aca="false">ROUNDUP(((E25/8192)/E39),0)</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="18" t="s">
@@ -2108,7 +2113,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="19" t="n">
         <f aca="false">SUM(E40:E42)</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="18" t="s">
@@ -2143,7 +2148,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="19" t="n">
         <f aca="false">8192*E44</f>
-        <v>65536</v>
+        <v>311296</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>18</v>
@@ -2179,7 +2184,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="n">
         <f aca="false">E45/1024</f>
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>33</v>
@@ -2211,7 +2216,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="21" t="n">
         <f aca="false">E46/1024</f>
-        <v>0.0625</v>
+        <v>0.296875</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>34</v>
@@ -2243,7 +2248,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="24" t="n">
         <f aca="false">E47/1024</f>
-        <v>6.103515625E-005</v>
+        <v>0.0002899169921875</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>35</v>
@@ -2738,7 +2743,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19" t="n">
         <f aca="false">ROUNDUP(E17/(E61-E62),0)</f>
-        <v>2514</v>
+        <v>12917</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="18" t="s">
@@ -2773,7 +2778,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19" t="n">
         <f aca="false">ROUNDUP(E63/E$59,0)</f>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="18" t="s">
@@ -2869,7 +2874,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="n">
         <f aca="false">SUM(E63:E65)</f>
-        <v>2520</v>
+        <v>12944</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="18" t="s">
@@ -2904,7 +2909,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="n">
         <f aca="false">8192*E67</f>
-        <v>20643840</v>
+        <v>106037248</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>18</v>
@@ -2940,7 +2945,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="n">
         <f aca="false">E68/1024</f>
-        <v>20160</v>
+        <v>103552</v>
       </c>
       <c r="F69" s="20" t="s">
         <v>33</v>
@@ -2972,7 +2977,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="21" t="n">
         <f aca="false">E69/1024</f>
-        <v>19.6875</v>
+        <v>101.125</v>
       </c>
       <c r="F70" s="20" t="s">
         <v>34</v>
@@ -3004,7 +3009,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24" t="n">
         <f aca="false">E70/1024</f>
-        <v>0.01922607421875</v>
+        <v>0.0987548828125</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>35</v>
@@ -3037,7 +3042,7 @@
       </c>
       <c r="E73" s="31" t="n">
         <f aca="false">E68+E45+E25</f>
-        <v>41099264</v>
+        <v>237420544</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>18</v>
@@ -3069,7 +3074,7 @@
       <c r="D74" s="31"/>
       <c r="E74" s="31" t="n">
         <f aca="false">E73/1024</f>
-        <v>40136</v>
+        <v>231856</v>
       </c>
       <c r="F74" s="31" t="s">
         <v>33</v>
@@ -3095,7 +3100,7 @@
       <c r="D75" s="31"/>
       <c r="E75" s="32" t="n">
         <f aca="false">E74/1024</f>
-        <v>39.1953125</v>
+        <v>226.421875</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>34</v>
@@ -3121,7 +3126,7 @@
       <c r="D76" s="31"/>
       <c r="E76" s="33" t="n">
         <f aca="false">E75/1024</f>
-        <v>0.0382766723632812</v>
+        <v>0.221115112304687</v>
       </c>
       <c r="F76" s="31" t="s">
         <v>35</v>
@@ -3156,7 +3161,7 @@
       </c>
       <c r="E79" s="35" t="n">
         <f aca="false">E73*C13</f>
-        <v>4151025664</v>
+        <v>94968217600</v>
       </c>
       <c r="F79" s="35" t="s">
         <v>18</v>
@@ -3188,7 +3193,7 @@
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="n">
         <f aca="false">E79/1024</f>
-        <v>4053736</v>
+        <v>92742400</v>
       </c>
       <c r="F80" s="35" t="s">
         <v>33</v>
@@ -3216,7 +3221,7 @@
       <c r="D81" s="35"/>
       <c r="E81" s="36" t="n">
         <f aca="false">E80/1024</f>
-        <v>3958.7265625</v>
+        <v>90568.75</v>
       </c>
       <c r="F81" s="35" t="s">
         <v>34</v>
@@ -3242,7 +3247,7 @@
       <c r="D82" s="35"/>
       <c r="E82" s="37" t="n">
         <f aca="false">E81/1024</f>
-        <v>3.86594390869141</v>
+        <v>88.446044921875</v>
       </c>
       <c r="F82" s="35" t="s">
         <v>35</v>
@@ -3332,7 +3337,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
